--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.633059</v>
+        <v>5.403619666666667</v>
       </c>
       <c r="H2">
-        <v>49.899177</v>
+        <v>16.210859</v>
       </c>
       <c r="I2">
-        <v>0.2141889211266894</v>
+        <v>0.08303620947547638</v>
       </c>
       <c r="J2">
-        <v>0.2141889211266894</v>
+        <v>0.08303620947547637</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N2">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O2">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P2">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q2">
-        <v>5.532465907168</v>
+        <v>0.8512087904047778</v>
       </c>
       <c r="R2">
-        <v>49.79219316451201</v>
+        <v>7.660879113643</v>
       </c>
       <c r="S2">
-        <v>0.06883865330746594</v>
+        <v>0.05800848931259656</v>
       </c>
       <c r="T2">
-        <v>0.06883865330746594</v>
+        <v>0.05800848931259656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.633059</v>
+        <v>5.403619666666667</v>
       </c>
       <c r="H3">
-        <v>49.899177</v>
+        <v>16.210859</v>
       </c>
       <c r="I3">
-        <v>0.2141889211266894</v>
+        <v>0.08303620947547638</v>
       </c>
       <c r="J3">
-        <v>0.2141889211266894</v>
+        <v>0.08303620947547637</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N3">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q3">
-        <v>11.681596932408</v>
+        <v>0.3672534082318889</v>
       </c>
       <c r="R3">
-        <v>105.134372391672</v>
+        <v>3.305280674087</v>
       </c>
       <c r="S3">
-        <v>0.1453502678192235</v>
+        <v>0.02502772016287981</v>
       </c>
       <c r="T3">
-        <v>0.1453502678192235</v>
+        <v>0.0250277201628798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.79415266666666</v>
+        <v>50.79415266666667</v>
       </c>
       <c r="H4">
         <v>152.382458</v>
       </c>
       <c r="I4">
-        <v>0.6540916351717195</v>
+        <v>0.7805423329433673</v>
       </c>
       <c r="J4">
-        <v>0.6540916351717195</v>
+        <v>0.7805423329433673</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N4">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O4">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P4">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q4">
-        <v>16.89508333444978</v>
+        <v>8.001382761585113</v>
       </c>
       <c r="R4">
-        <v>152.055750010048</v>
+        <v>72.01244485426601</v>
       </c>
       <c r="S4">
-        <v>0.2102199640767921</v>
+        <v>0.5452811714863596</v>
       </c>
       <c r="T4">
-        <v>0.2102199640767921</v>
+        <v>0.5452811714863596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.79415266666666</v>
+        <v>50.79415266666667</v>
       </c>
       <c r="H5">
         <v>152.382458</v>
       </c>
       <c r="I5">
-        <v>0.6540916351717195</v>
+        <v>0.7805423329433673</v>
       </c>
       <c r="J5">
-        <v>0.6540916351717195</v>
+        <v>0.7805423329433673</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N5">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q5">
-        <v>35.673342947632</v>
+        <v>3.452190723221556</v>
       </c>
       <c r="R5">
-        <v>321.060086528688</v>
+        <v>31.069716508994</v>
       </c>
       <c r="S5">
-        <v>0.4438716710949275</v>
+        <v>0.2352611614570077</v>
       </c>
       <c r="T5">
-        <v>0.4438716710949275</v>
+        <v>0.2352611614570077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.22880766666667</v>
+        <v>8.877689333333334</v>
       </c>
       <c r="H6">
-        <v>30.686423</v>
+        <v>26.633068</v>
       </c>
       <c r="I6">
-        <v>0.1317194437015911</v>
+        <v>0.1364214575811564</v>
       </c>
       <c r="J6">
-        <v>0.1317194437015911</v>
+        <v>0.1364214575811563</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N6">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O6">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P6">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q6">
-        <v>3.402292367676445</v>
+        <v>1.398463930692889</v>
       </c>
       <c r="R6">
-        <v>30.62063130908801</v>
+        <v>12.586175376236</v>
       </c>
       <c r="S6">
-        <v>0.04233360470340521</v>
+        <v>0.09530303362947377</v>
       </c>
       <c r="T6">
-        <v>0.04233360470340521</v>
+        <v>0.09530303362947377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.22880766666667</v>
+        <v>8.877689333333334</v>
       </c>
       <c r="H7">
-        <v>30.686423</v>
+        <v>26.633068</v>
       </c>
       <c r="I7">
-        <v>0.1317194437015911</v>
+        <v>0.1364214575811564</v>
       </c>
       <c r="J7">
-        <v>0.1317194437015911</v>
+        <v>0.1364214575811563</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N7">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q7">
-        <v>7.183814369992001</v>
+        <v>0.6033662370804446</v>
       </c>
       <c r="R7">
-        <v>64.65432932992802</v>
+        <v>5.430296133724</v>
       </c>
       <c r="S7">
-        <v>0.08938583899818588</v>
+        <v>0.04111842395168257</v>
       </c>
       <c r="T7">
-        <v>0.08938583899818588</v>
+        <v>0.04111842395168257</v>
       </c>
     </row>
   </sheetData>
